--- a/mockdata/summary_scores.xlsx
+++ b/mockdata/summary_scores.xlsx
@@ -5,23 +5,35 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Streamlit\API_Flask_4_QA1\mockdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\共享區\評估LLM與RAG成效_模擬資料集\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2182FD-A019-4E1A-A64D-068B254ABF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DD01B0-E4E4-4CD8-A36E-AB7587970A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14340" yWindow="1290" windowWidth="13830" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="summary_scores (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="summary_scores" sheetId="1" r:id="rId2"/>
+    <sheet name="Test3" sheetId="5" r:id="rId1"/>
+    <sheet name="Test2" sheetId="4" r:id="rId2"/>
+    <sheet name="Test1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="52">
   <si>
     <t>Test</t>
   </si>
@@ -118,47 +130,19 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>output_mini_0.csv</t>
-  </si>
-  <si>
-    <t>output_mini_1.csv</t>
-  </si>
-  <si>
-    <t>output_mini_2.csv</t>
-  </si>
-  <si>
-    <t>output_mini_3.csv</t>
-  </si>
-  <si>
-    <t>output_mini_4.csv</t>
-  </si>
-  <si>
     <t>Score Simple</t>
   </si>
   <si>
     <t>Score Complex</t>
   </si>
   <si>
-    <t>File Name</t>
-  </si>
-  <si>
     <t>Gemma27b</t>
-  </si>
-  <si>
-    <t>llama3_0</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>llama3</t>
   </si>
   <si>
     <t>Taide_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Taide</t>
-  </si>
-  <si>
     <t>Llama3f16_0</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -166,19 +150,88 @@
     <t>Llama3f16</t>
   </si>
   <si>
-    <t>output_mini_0.csv</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>GPT4o-mini</t>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test 1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>Test 3</t>
+  </si>
+  <si>
+    <t>AVG</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLM</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPT4o_mini_0</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPT4o_mini_1</t>
+  </si>
+  <si>
+    <t>GPT4o_mini_2</t>
+  </si>
+  <si>
+    <t>GPT4o_mini_3</t>
+  </si>
+  <si>
+    <t>GPT4o_mini_4</t>
+  </si>
+  <si>
+    <t>Gemma27b_1</t>
+  </si>
+  <si>
+    <t>Gemini27b_2</t>
+  </si>
+  <si>
+    <t>Gemma27b_3</t>
+  </si>
+  <si>
+    <t>Gemma27b_4</t>
+  </si>
+  <si>
+    <t>Gemma27b_5</t>
+  </si>
+  <si>
+    <t>GPT4o-mini_1</t>
+  </si>
+  <si>
+    <t>GPT4o-mini_2</t>
+  </si>
+  <si>
+    <t>GPT4o-mini_0</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gemma27b_0</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gemma27b_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -351,8 +404,28 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,18 +619,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -672,6 +787,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -801,7 +931,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -811,14 +941,71 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="39" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="42" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -865,7 +1052,21 @@
     <cellStyle name="壞" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="警告文字" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="127">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -883,622 +1084,92 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1517,6 +1188,1021 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1632,77 +2318,215 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1750,118 +2574,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -1909,6 +2621,133 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -2148,160 +2987,232 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A32C3FA2-67B8-45D8-B2E1-6A258A439E99}" name="表格1_7" displayName="表格1_7" ref="A13:G15" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
-  <autoFilter ref="A13:G15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F046281E-C29B-489A-88F1-36A95336C4E8}" name="Llama3f16" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{00DAA569-94F1-448E-AB3C-4892AE35C83E}" name="Llama3f16_0" dataDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{C3A39C59-75C2-4C4E-9FEC-19D544C5B5DB}" name="Llama3f16_1" dataDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{5D526C2F-DAB5-4835-971A-DDC29F963083}" name="Llama3f16_2" dataDxfId="84"/>
-    <tableColumn id="5" xr3:uid="{A6D5824B-AA2A-4AC5-847A-B19B4E1F01F6}" name="Llama3f16_3" dataDxfId="83"/>
-    <tableColumn id="6" xr3:uid="{47127076-53CA-400A-91BC-878F327E18C9}" name="Llama3f16_4" dataDxfId="82"/>
-    <tableColumn id="7" xr3:uid="{1532EB95-7704-41E7-B9CD-E24FA1FB22CD}" name="AVG" dataDxfId="81"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{A164E7C0-91F2-416C-AED3-6A0B68769EBD}" name="表格21" displayName="表格21" ref="A6:E9" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A6:E9" xr:uid="{A164E7C0-91F2-416C-AED3-6A0B68769EBD}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{657A97A7-45F3-4C57-AF00-A6AE663B1451}" name="Gemma27b" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{7138A10E-6D03-4033-902A-0AACA63961DC}" name="Gemma27b_0" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{B66F8E8C-E483-477C-A897-A11FDC5C901B}" name="Gemma27b_1" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{4A1FDCA8-3742-41A5-A152-311A23423093}" name="Gemma27b_2" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{231CEFB0-9E8B-4B9E-A432-0F44D80AE779}" name="AVG" dataDxfId="16">
+      <calculatedColumnFormula>AVERAGE(表格21[[#This Row],[Gemma27b_0]:[Gemma27b_2]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6E5C1F50-8C17-4108-912C-0D0857960590}" name="表格5" displayName="表格5" ref="A17:G19" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A17:G19" xr:uid="{6E5C1F50-8C17-4108-912C-0D0857960590}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表格2" displayName="表格2" ref="A11:G14" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
+  <autoFilter ref="A11:G14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{8F2F16B0-9EBC-4043-8745-6FFC70C7263D}" name="Test" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{BAFA1013-2BEA-48C5-88EF-4C282105C1BA}" name="output_mini_0.csv" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{99D85430-89A8-4DF3-BCCD-42F74601CBDD}" name="output_mini_1.csv" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{7153177E-D536-4EDC-A139-04FBF6B71DD4}" name="output_mini_2.csv" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{18E190C0-F41D-4C23-BBE9-8C066D9C6B66}" name="output_mini_3.csv" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{253E3F92-74A0-4631-BF4D-90B33BF4C093}" name="output_mini_4.csv" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{7B2BA074-A05C-484E-96AD-786707EEFA86}" name="AVG" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Test" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Taide_1" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Taide_2" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Taide_3" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Taide_4" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="欄1" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="AVG" dataDxfId="56"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表格3" displayName="表格3" ref="A6:G9" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+  <autoFilter ref="A6:G9" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Test" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="llama3_0" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="llama3_1" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="llama3_2" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="llama3_3" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="llama3_4" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="AVG" dataDxfId="47"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表格4" displayName="表格4" ref="A1:G4" totalsRowCount="1" headerRowDxfId="46" dataDxfId="45" totalsRowDxfId="44">
+  <autoFilter ref="A1:G3" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Test" totalsRowLabel="SUM" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Gemma27b_1" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
+      <totalsRowFormula>SUM(表格4[Gemma27b_1])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Gemini27b_2" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38">
+      <totalsRowFormula>SUM(表格4[Gemini27b_2])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Gemma27b_3" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
+      <totalsRowFormula>SUM(表格4[Gemma27b_3])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Gemma27b_4" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
+      <totalsRowFormula>SUM(表格4[Gemma27b_4])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Gemma27b_5" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
+      <totalsRowFormula>SUM(表格4[Gemma27b_5])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="AVG" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
+      <totalsRowFormula>AVERAGE(表格4[[#Totals],[Gemma27b_1]:[Gemma27b_5]])</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6E5C1F50-8C17-4108-912C-0D0857960590}" name="表格5" displayName="表格5" ref="A21:G24" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A21:G24" xr:uid="{6E5C1F50-8C17-4108-912C-0D0857960590}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{8F2F16B0-9EBC-4043-8745-6FFC70C7263D}" name="Test" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{BAFA1013-2BEA-48C5-88EF-4C282105C1BA}" name="GPT4o_mini_0" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{99D85430-89A8-4DF3-BCCD-42F74601CBDD}" name="GPT4o_mini_1" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{7153177E-D536-4EDC-A139-04FBF6B71DD4}" name="GPT4o_mini_2" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{18E190C0-F41D-4C23-BBE9-8C066D9C6B66}" name="GPT4o_mini_3" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{253E3F92-74A0-4631-BF4D-90B33BF4C093}" name="GPT4o_mini_4" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{7B2BA074-A05C-484E-96AD-786707EEFA86}" name="AVG" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A061E286-E2F6-4E6D-8CF7-BE88924E7CA5}" name="表格2_8" displayName="表格2_8" ref="A9:G11" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
-  <autoFilter ref="A9:G11" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{058513CE-CA70-4912-9C60-0E5C2D23C028}" name="Taide" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{DD55D021-A8A5-42F4-BE27-034828CAD922}" name="Taide_1" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{CA519FE0-164D-486F-89D7-0E3FD75C8E03}" name="Taide_2" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{9723FAD2-9800-48FB-B4B4-580C0B4E24F1}" name="Taide_3" dataDxfId="75"/>
-    <tableColumn id="5" xr3:uid="{E85F168E-289E-45F7-9CB9-E72F011AAC7D}" name="Taide_4" dataDxfId="74"/>
-    <tableColumn id="6" xr3:uid="{9CA6C4DE-0DBC-4E3B-BDFC-85BAD748D46F}" name="欄1" dataDxfId="73"/>
-    <tableColumn id="7" xr3:uid="{1A280B83-A3EA-4767-A3B8-AEB39BD227B6}" name="AVG" dataDxfId="72"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{58F5610C-965D-4C37-BB6E-3839955591D4}" name="表格24" displayName="表格24" ref="A11:E14" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A11:E14" xr:uid="{58F5610C-965D-4C37-BB6E-3839955591D4}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{90F147BC-AB5F-4FEC-A92B-8E653AAB6EED}" name="Llama3f16" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{EA76C8D6-9741-4A48-A988-C309C4184ED4}" name="Llama3f16_0" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{9903F8A0-712C-46A1-83A5-35CE8A2F4CA5}" name="Llama3f16_1" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{3A584B02-5B14-4281-98A5-7EE03C8FDFB9}" name="Llama3f16_2" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{871EEA12-1D35-4C5D-8C63-675971B5B037}" name="AVG" dataDxfId="9">
+      <calculatedColumnFormula>AVERAGE(表格24[[#This Row],[Llama3f16_0]:[Llama3f16_2]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D55070A8-CB4B-486F-B781-AD594B9D58E7}" name="表格3_9" displayName="表格3_9" ref="A5:G7" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
-  <autoFilter ref="A5:G7" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{73F86E57-3DEF-4AF6-B554-2DF19A787FE0}" name="llama3" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{EAFD3308-D02A-4AD7-A584-BF18CD99E2B8}" name="llama3_0" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{7A55AA92-F533-4325-9785-A758D5C64FF5}" name="llama3_1" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{1203BE2C-975B-4533-BF9C-640AA6359370}" name="llama3_2" dataDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{F20094FF-35F1-4EC3-ACFE-7E713A266E10}" name="llama3_3" dataDxfId="65"/>
-    <tableColumn id="6" xr3:uid="{D27E8ED2-86D8-43FA-8FAD-BFC4C5624DBD}" name="llama3_4" dataDxfId="64"/>
-    <tableColumn id="7" xr3:uid="{D56CCFDB-7543-4BD1-8CDB-301968FD66F1}" name="AVG" dataDxfId="63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{447E3D04-5BF1-4F29-8F94-C28735153895}" name="表格25" displayName="表格25" ref="A1:E4" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:E4" xr:uid="{447E3D04-5BF1-4F29-8F94-C28735153895}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A4F569C0-B1C5-4274-87F9-9C0887A00AE6}" name="GPT4o-mini" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{4DAD6647-EECB-4E7E-8D7A-7FF55BFF2FDB}" name="GPT4o-mini_0" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{A6F567D5-D997-4508-BE16-025DC3138B51}" name="GPT4o-mini_1" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{D4DDC1E4-1137-47CC-B71D-8C6DFF6E8E2E}" name="GPT4o-mini_2" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{21EE72A3-C75B-415F-B4FF-DD9AC6EF5B79}" name="AVG" dataDxfId="2">
+      <calculatedColumnFormula>AVERAGE(表格25[[#This Row],[GPT4o-mini_0]:[GPT4o-mini_2]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{22836F37-B82A-436B-B83B-0479A903C5BA}" name="表格4_10" displayName="表格4_10" ref="A1:G3" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
-  <autoFilter ref="A1:G3" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{98D03F79-350F-4C5C-8F66-75E2C8A7DC21}" name="表格1_17" displayName="表格1_17" ref="A16:G19" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125">
+  <autoFilter ref="A16:G19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2627C8BA-22BE-4963-A59B-06B62E1D545E}" name="Gemma27b" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{392AC305-72B7-441F-AD40-423CD983A022}" name="Gemma27b_1" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{FF703026-3C4A-4B94-B5CA-87D14CF7CB11}" name="Gemini27b_2" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{B814BFC0-E361-41F3-AA16-BE8C8A258742}" name="Gemma27b_3" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{369702D5-59B4-403E-B446-E6BB9D0CF674}" name="Gemma27b_4" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{2CBB16FC-856A-45C3-B9C7-93CB8B3BD777}" name="Gemma27b_5" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{EB5DDB52-93C8-4F24-8896-C1FB816D1777}" name="AVG" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{DB16A7F6-3E9A-4024-8194-0A592D375489}" name="Test" dataDxfId="124"/>
+    <tableColumn id="2" xr3:uid="{0F39B88F-B7D8-4936-8057-9BCB1EF7F066}" name="Llama3f16_0" dataDxfId="123"/>
+    <tableColumn id="3" xr3:uid="{530E42FE-8138-4093-BF7A-04C972465C5B}" name="Llama3f16_1" dataDxfId="122"/>
+    <tableColumn id="4" xr3:uid="{300A376F-9493-43A0-85C2-7625494E8AE5}" name="Llama3f16_2" dataDxfId="121"/>
+    <tableColumn id="5" xr3:uid="{A5FF5E55-E2FF-4322-AF5D-7807181A6D98}" name="Llama3f16_3" dataDxfId="120"/>
+    <tableColumn id="6" xr3:uid="{11DDB850-44EB-4FEB-A2A3-F3261438E058}" name="Llama3f16_4" dataDxfId="119"/>
+    <tableColumn id="7" xr3:uid="{A947CD9F-FF0D-430F-99A7-F5BE78DB6E2B}" name="AVG" dataDxfId="118"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9647FD6A-898C-4CB7-80A4-AE8AA3501636}" name="表格5_11" displayName="表格5_11" ref="A17:G19" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
-  <autoFilter ref="A17:G19" xr:uid="{6E5C1F50-8C17-4108-912C-0D0857960590}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{C6779FD4-8259-4145-8F71-2D9D6F9C3607}" name="表格2_18" displayName="表格2_18" ref="A11:G14" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
+  <autoFilter ref="A11:G14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6A19A1F9-E89C-4D36-BCB1-4771101FC4D9}" name="GPT4o-mini" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{28C61F74-BB81-463B-98B3-8CF7991DA314}" name="output_mini_0.csv" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{AF90F2E8-AF85-4E4F-B0C9-7350864675C1}" name="output_mini_1.csv" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{B2E0079A-FF96-4FE2-BE67-0E3BDFB39408}" name="output_mini_2.csv" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{4AE8AC02-DADC-4B52-8E01-CCF84A083B63}" name="output_mini_3.csv" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{F3C3CF45-9B87-4FC2-92F7-3A9D97921664}" name="output_mini_4.csv" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{B0EBCC0A-FAEB-4D3E-84E8-22F8D2876838}" name="AVG" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{697D0819-482F-44C5-A4C1-FD75500A3B6B}" name="Test" dataDxfId="115"/>
+    <tableColumn id="2" xr3:uid="{28F6FF53-3940-45C0-BFE9-0F733C2C9006}" name="Taide_1" dataDxfId="114"/>
+    <tableColumn id="3" xr3:uid="{9695BE74-9F87-453A-B212-1BF80FFA446B}" name="Taide_2" dataDxfId="113"/>
+    <tableColumn id="4" xr3:uid="{C0B0EDC6-1F1A-4887-8E00-AA79AB46AB21}" name="Taide_3" dataDxfId="112"/>
+    <tableColumn id="5" xr3:uid="{B88304F1-3DE2-467A-BE57-089C932D6234}" name="Taide_4" dataDxfId="111"/>
+    <tableColumn id="6" xr3:uid="{4CAD63F3-8C11-4BE7-9C20-80BEA25169DB}" name="欄1" dataDxfId="110"/>
+    <tableColumn id="7" xr3:uid="{DA9009E3-07EE-4EA8-A441-266A13355AA2}" name="AVG" dataDxfId="109"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表格1" displayName="表格1" ref="A13:G15" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
-  <autoFilter ref="A13:G15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA0C7AF5-EB4A-4EC9-800E-000A036BB21F}" name="表格3_19" displayName="表格3_19" ref="A6:G9" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107">
+  <autoFilter ref="A6:G9" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Llama3f16_0" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Llama3f16_1" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Llama3f16_2" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Llama3f16_3" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Llama3f16_4" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="AVG" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{0D99380C-BFC5-4F16-8B1A-40C35EC6C2F3}" name="Test" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{06AD71B2-3438-4886-99DC-CE2F86A103F7}" name="llama3_0" dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{26C145DD-04CF-4330-9D61-752321CFD227}" name="llama3_1" dataDxfId="104"/>
+    <tableColumn id="4" xr3:uid="{891990CB-D03C-4242-9BD6-5535108CF5A6}" name="llama3_2" dataDxfId="103"/>
+    <tableColumn id="5" xr3:uid="{2F38F774-9568-441D-8C14-92835B6109F4}" name="llama3_3" dataDxfId="102"/>
+    <tableColumn id="6" xr3:uid="{EF9B3473-B631-4AC3-9142-1E4B1C9FB98E}" name="llama3_4" dataDxfId="101"/>
+    <tableColumn id="7" xr3:uid="{9964A90F-448A-4C00-9477-25A167FB9D1F}" name="AVG" dataDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表格2" displayName="表格2" ref="A9:G11" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
-  <autoFilter ref="A9:G11" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{B07C189F-5F82-4087-A8DA-C5AF68C859A0}" name="表格4_20" displayName="表格4_20" ref="A1:G4" totalsRowCount="1" headerRowDxfId="99" dataDxfId="98" totalsRowDxfId="97">
+  <autoFilter ref="A1:G3" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Test" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Taide_1" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Taide_2" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Taide_3" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Taide_4" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="欄1" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="AVG" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{F0BB06B0-D12E-41E4-B3D6-C334AEC8A688}" name="Test" totalsRowLabel="SUM" dataDxfId="96" totalsRowDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{D2435DAC-91AF-4901-9981-52ABF23824F8}" name="Gemma27b_1" totalsRowFunction="custom" dataDxfId="94" totalsRowDxfId="93">
+      <totalsRowFormula>SUM(表格4_20[Gemma27b_1])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{A88ED242-FC8E-4648-8A55-070C253BB2D9}" name="Gemini27b_2" totalsRowFunction="custom" dataDxfId="92" totalsRowDxfId="91">
+      <totalsRowFormula>SUM(表格4_20[Gemini27b_2])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{51BF0D93-17E1-45B7-99EE-595FD255EF47}" name="Gemma27b_3" totalsRowFunction="custom" dataDxfId="90" totalsRowDxfId="89">
+      <totalsRowFormula>SUM(表格4_20[Gemma27b_3])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{506D4CCB-DA7B-48A7-A998-B7A62B7C11D3}" name="Gemma27b_4" totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="87">
+      <totalsRowFormula>SUM(表格4_20[Gemma27b_4])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{9D9F2D9D-BEBC-45D2-98A2-8D06937B7F5E}" name="Gemma27b_5" totalsRowFunction="custom" dataDxfId="86" totalsRowDxfId="85">
+      <totalsRowFormula>SUM(表格4_20[Gemma27b_5])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{908DAE08-6C68-480B-8E2C-F59975779660}" name="AVG" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="83">
+      <totalsRowFormula>AVERAGE(表格4_20[[#Totals],[Gemma27b_1]:[Gemma27b_5]])</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表格3" displayName="表格3" ref="A5:G7" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A5:G7" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{5635ECFE-B678-4039-B578-A43973042D7E}" name="表格5_21" displayName="表格5_21" ref="A21:G24" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
+  <autoFilter ref="A21:G24" xr:uid="{6E5C1F50-8C17-4108-912C-0D0857960590}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Test" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="llama3_0" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="llama3_1" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="llama3_2" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="llama3_3" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="llama3_4" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="AVG" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{9FDF0A2A-2ABF-4596-8653-1F24649248BE}" name="Test" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{6B768E99-8E71-4326-9CA3-33156E3F822C}" name="GPT4o_mini_0" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{8F17EBE9-9E77-4B1C-85D4-AB0D31FA2D7A}" name="GPT4o_mini_1" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{4816154E-75F0-4F6E-BD80-85D71DDFA815}" name="GPT4o_mini_2" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{BCA1B4BD-4A9B-465D-9B50-244624FE62BB}" name="GPT4o_mini_3" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{D97A6CA8-8816-472A-812E-F570BDA1C33A}" name="GPT4o_mini_4" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{0EF3C39D-4235-4C47-B140-C5655CCB6F8B}" name="AVG" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表格4" displayName="表格4" ref="A1:G3" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:G3" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表格1" displayName="表格1" ref="A16:G19" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
+  <autoFilter ref="A16:G19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Test" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Gemma27b_1" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Gemini27b_2" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Gemma27b_3" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Gemma27b_4" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Gemma27b_5" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="AVG" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Llama3f16_0" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Llama3f16_1" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Llama3f16_2" dataDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Llama3f16_3" dataDxfId="67"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Llama3f16_4" dataDxfId="66"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="AVG" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2603,11 +3514,344 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFEBC7B-221F-4A0A-A2A6-23E41681CF45}">
-  <dimension ref="A1:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1956532-B8E5-44EE-ADB0-8C7269E5340A}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.75" style="15" customWidth="1"/>
+    <col min="2" max="4" width="16.75" style="15" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="15" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="15" customWidth="1"/>
+    <col min="7" max="7" width="9" style="16"/>
+    <col min="8" max="16384" width="9" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="15">
+        <v>13</v>
+      </c>
+      <c r="C2" s="15">
+        <v>13</v>
+      </c>
+      <c r="D2" s="15">
+        <v>13</v>
+      </c>
+      <c r="E2" s="17">
+        <f>AVERAGE(表格25[[#This Row],[GPT4o-mini_0]:[GPT4o-mini_2]])</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="15">
+        <v>11</v>
+      </c>
+      <c r="C3" s="15">
+        <v>9</v>
+      </c>
+      <c r="D3" s="15">
+        <v>10</v>
+      </c>
+      <c r="E3" s="17">
+        <f>AVERAGE(表格25[[#This Row],[GPT4o-mini_0]:[GPT4o-mini_2]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="15">
+        <f>SUM(B2:B3)</f>
+        <v>24</v>
+      </c>
+      <c r="C4" s="15">
+        <f t="shared" ref="C4:D4" si="0">SUM(C2:C3)</f>
+        <v>22</v>
+      </c>
+      <c r="D4" s="15">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E4" s="19">
+        <f>AVERAGE(表格25[[#This Row],[GPT4o-mini_0]:[GPT4o-mini_2]])</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="15">
+        <v>10</v>
+      </c>
+      <c r="C7" s="15">
+        <v>11</v>
+      </c>
+      <c r="D7" s="15">
+        <v>11</v>
+      </c>
+      <c r="E7" s="17">
+        <f>AVERAGE(表格21[[#This Row],[Gemma27b_0]:[Gemma27b_2]])</f>
+        <v>10.666666666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="15">
+        <v>10</v>
+      </c>
+      <c r="C8" s="15">
+        <v>10</v>
+      </c>
+      <c r="D8" s="15">
+        <v>10</v>
+      </c>
+      <c r="E8" s="17">
+        <f>AVERAGE(表格21[[#This Row],[Gemma27b_0]:[Gemma27b_2]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="15">
+        <f>SUM(B7:B8)</f>
+        <v>20</v>
+      </c>
+      <c r="C9" s="15">
+        <f t="shared" ref="C9:D9" si="1">SUM(C7:C8)</f>
+        <v>21</v>
+      </c>
+      <c r="D9" s="15">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="E9" s="20">
+        <f>AVERAGE(表格21[[#This Row],[Gemma27b_0]:[Gemma27b_2]])</f>
+        <v>20.666666666666668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="15">
+        <v>10</v>
+      </c>
+      <c r="C12" s="15">
+        <v>13</v>
+      </c>
+      <c r="D12" s="15">
+        <v>9</v>
+      </c>
+      <c r="E12" s="17">
+        <f>AVERAGE(表格24[[#This Row],[Llama3f16_0]:[Llama3f16_2]])</f>
+        <v>10.666666666666666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="15">
+        <v>8</v>
+      </c>
+      <c r="C13" s="15">
+        <v>8</v>
+      </c>
+      <c r="D13" s="15">
+        <v>9</v>
+      </c>
+      <c r="E13" s="17">
+        <f>AVERAGE(表格24[[#This Row],[Llama3f16_0]:[Llama3f16_2]])</f>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="15">
+        <f>SUM(B12:B13)</f>
+        <v>18</v>
+      </c>
+      <c r="C14" s="15">
+        <f t="shared" ref="C14:D14" si="2">SUM(C12:C13)</f>
+        <v>21</v>
+      </c>
+      <c r="D14" s="15">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="E14" s="21">
+        <f>AVERAGE(表格24[[#This Row],[Llama3f16_0]:[Llama3f16_2]])</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="17"/>
+    </row>
+    <row r="17" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="9">
+        <v>24</v>
+      </c>
+      <c r="C18" s="9">
+        <v>22</v>
+      </c>
+      <c r="D18" s="9">
+        <v>23</v>
+      </c>
+      <c r="E18" s="10">
+        <f>AVERAGE(B18:D18)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="9">
+        <v>20</v>
+      </c>
+      <c r="C19" s="9">
+        <v>21</v>
+      </c>
+      <c r="D19" s="9">
+        <v>21</v>
+      </c>
+      <c r="E19" s="22">
+        <f t="shared" ref="E19:E20" si="3">AVERAGE(B19:D19)</f>
+        <v>20.666666666666668</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="9">
+        <v>18</v>
+      </c>
+      <c r="C20" s="9">
+        <v>21</v>
+      </c>
+      <c r="D20" s="9">
+        <v>18</v>
+      </c>
+      <c r="E20" s="11">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A513D46-BE18-439E-8634-C0A8EC455011}">
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2619,366 +3863,483 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>12</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>15</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>11</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>12</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>10</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>5</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>7</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>6</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="5">
         <v>5.6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>1</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1">
+        <f>SUM(表格4_20[Gemma27b_1])</f>
+        <v>17</v>
+      </c>
+      <c r="C4" s="1">
+        <f>SUM(表格4_20[Gemini27b_2])</f>
+        <v>20</v>
+      </c>
+      <c r="D4" s="1">
+        <f>SUM(表格4_20[Gemma27b_3])</f>
+        <v>16</v>
+      </c>
+      <c r="E4" s="1">
+        <f>SUM(表格4_20[Gemma27b_4])</f>
+        <v>19</v>
+      </c>
+      <c r="F4" s="1">
+        <f>SUM(表格4_20[Gemma27b_5])</f>
+        <v>16</v>
+      </c>
+      <c r="G4" s="2">
+        <f>AVERAGE(表格4_20[[#Totals],[Gemma27b_1]:[Gemma27b_5]])</f>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1">
-        <v>9.1999999999999993</v>
+      <c r="G6" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>5</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <v>7</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="1">
         <v>6</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F8" s="1">
         <v>7</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G8" s="1">
         <v>6.2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="12">
+        <f>SUM(B7:B8)</f>
+        <v>16</v>
+      </c>
+      <c r="C9" s="12">
+        <f t="shared" ref="C9:F9" si="0">SUM(C7:C8)</f>
+        <v>14</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E9" s="12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G9" s="12">
+        <f>AVERAGE(表格3_19[[#This Row],[llama3_0]:[llama3_4]])</f>
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C12" s="1">
         <v>7</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D12" s="1">
         <v>7</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E12" s="1">
         <v>7</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G12" s="1">
         <v>6.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3</v>
-      </c>
-      <c r="G11" s="1">
-        <v>4.25</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="12">
+        <f>SUM(B12:B13)</f>
+        <v>10</v>
+      </c>
+      <c r="C14" s="12">
+        <f t="shared" ref="C14:E14" si="1">SUM(C12:C13)</f>
+        <v>12</v>
+      </c>
+      <c r="D14" s="12">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E14" s="12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G14" s="12">
+        <f>AVERAGE(表格2_18[[#This Row],[Taide_1]:[Taide_4]])</f>
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1">
-        <v>12</v>
-      </c>
-      <c r="F14" s="1">
-        <v>13</v>
-      </c>
-      <c r="G14" s="4">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1">
-        <v>8</v>
-      </c>
-      <c r="F15" s="1">
-        <v>8</v>
-      </c>
-      <c r="G15" s="5">
-        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B17" s="1">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1">
+        <v>13</v>
+      </c>
+      <c r="G17" s="3">
+        <v>12.8</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1">
+        <v>8</v>
+      </c>
+      <c r="G18" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="12">
+        <f>SUM(B17:B18)</f>
+        <v>19</v>
+      </c>
+      <c r="C19" s="12">
+        <f t="shared" ref="C19:F19" si="2">SUM(C17:C18)</f>
+        <v>21</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="E19" s="12">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="G19" s="14">
+        <f>AVERAGE(表格1_17[[#This Row],[Llama3f16_0]:[Llama3f16_4]])</f>
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
         <v>14</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C22" s="1">
         <v>13</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D22" s="1">
         <v>13</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E22" s="1">
         <v>15</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F22" s="1">
         <v>14</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G22" s="8">
         <v>13.8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="1">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1">
         <v>7</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C23" s="1">
         <v>8</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D23" s="1">
         <v>6</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E23" s="1">
         <v>6</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F23" s="1">
         <v>8</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G23" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
+    <row r="24" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="12">
+        <f>SUM(B22:B23)</f>
+        <v>21</v>
+      </c>
+      <c r="C24" s="12">
+        <f t="shared" ref="C24:F24" si="3">SUM(C22:C23)</f>
+        <v>21</v>
+      </c>
+      <c r="D24" s="12">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="E24" s="12">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="F24" s="12">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="G24" s="13">
+        <f>AVERAGE(表格5_21[[#This Row],[GPT4o_mini_0]:[GPT4o_mini_4]])</f>
+        <v>20.8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
@@ -2994,12 +4355,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3051,7 +4412,7 @@
       <c r="F2" s="1">
         <v>16</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="5">
         <v>17</v>
       </c>
     </row>
@@ -3074,344 +4435,419 @@
       <c r="F3" s="1">
         <v>10</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="5">
         <v>10.6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>1</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1">
+        <f>SUM(表格4[Gemma27b_1])</f>
+        <v>27</v>
+      </c>
+      <c r="C4" s="1">
+        <f>SUM(表格4[Gemini27b_2])</f>
+        <v>28</v>
+      </c>
+      <c r="D4" s="1">
+        <f>SUM(表格4[Gemma27b_3])</f>
+        <v>28</v>
+      </c>
+      <c r="E4" s="1">
+        <f>SUM(表格4[Gemma27b_4])</f>
+        <v>29</v>
+      </c>
+      <c r="F4" s="1">
+        <f>SUM(表格4[Gemma27b_5])</f>
+        <v>26</v>
+      </c>
+      <c r="G4" s="2">
+        <f>AVERAGE(表格4[[#Totals],[Gemma27b_1]:[Gemma27b_5]])</f>
+        <v>27.6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1">
-        <v>9.1999999999999993</v>
+      <c r="G6" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>5</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <v>7</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="1">
         <v>6</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F8" s="1">
         <v>7</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G8" s="1">
         <v>6.2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="12">
+        <f>SUM(B7:B8)</f>
+        <v>16</v>
+      </c>
+      <c r="C9" s="12">
+        <f t="shared" ref="C9:F9" si="0">SUM(C7:C8)</f>
+        <v>14</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E9" s="12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G9" s="12">
+        <f>AVERAGE(表格3[[#This Row],[llama3_0]:[llama3_4]])</f>
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C12" s="1">
         <v>7</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D12" s="1">
         <v>7</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E12" s="1">
         <v>7</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G12" s="1">
         <v>6.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3</v>
-      </c>
-      <c r="G11" s="1">
-        <v>4.25</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="12">
+        <f>SUM(B12:B13)</f>
+        <v>10</v>
+      </c>
+      <c r="C14" s="12">
+        <f t="shared" ref="C14:E14" si="1">SUM(C12:C13)</f>
+        <v>12</v>
+      </c>
+      <c r="D14" s="12">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E14" s="12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G14" s="12">
+        <f>AVERAGE(表格2[[#This Row],[Taide_1]:[Taide_4]])</f>
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1">
-        <v>12</v>
-      </c>
-      <c r="F14" s="1">
-        <v>13</v>
-      </c>
-      <c r="G14" s="4">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1">
-        <v>8</v>
-      </c>
-      <c r="F15" s="1">
-        <v>8</v>
-      </c>
-      <c r="G15" s="5">
-        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B17" s="1">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1">
+        <v>13</v>
+      </c>
+      <c r="G17" s="5">
+        <v>12.8</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1">
+        <v>8</v>
+      </c>
+      <c r="G18" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="12">
+        <f>SUM(B17:B18)</f>
+        <v>19</v>
+      </c>
+      <c r="C19" s="12">
+        <f t="shared" ref="C19:F19" si="2">SUM(C17:C18)</f>
+        <v>21</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="E19" s="12">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="G19" s="14">
+        <f>AVERAGE(表格1[[#This Row],[Llama3f16_0]:[Llama3f16_4]])</f>
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
         <v>15</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C22" s="1">
         <v>14</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D22" s="1">
         <v>17</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E22" s="1">
         <v>13</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F22" s="1">
         <v>15</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G22" s="5">
         <v>14.8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="1">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1">
         <v>8</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C23" s="1">
         <v>9</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D23" s="1">
         <v>7</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E23" s="1">
         <v>6</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F23" s="1">
         <v>6</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G23" s="5">
         <v>7.2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="24" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="12">
+        <f>SUM(B22:B23)</f>
+        <v>23</v>
+      </c>
+      <c r="C24" s="12">
+        <f t="shared" ref="C24:F24" si="3">SUM(C22:C23)</f>
+        <v>23</v>
+      </c>
+      <c r="D24" s="12">
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22">
-        <v>14</v>
-      </c>
-      <c r="C22">
-        <v>13</v>
-      </c>
-      <c r="D22">
-        <v>13</v>
-      </c>
-      <c r="E22">
-        <v>15</v>
-      </c>
-      <c r="F22">
-        <v>14</v>
-      </c>
-      <c r="G22" s="1">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23">
-        <v>7</v>
-      </c>
-      <c r="C23">
-        <v>8</v>
-      </c>
-      <c r="D23">
-        <v>6</v>
-      </c>
-      <c r="E23">
-        <v>6</v>
-      </c>
-      <c r="F23">
-        <v>8</v>
-      </c>
-      <c r="G23" s="1">
-        <v>7</v>
+      <c r="E24" s="12">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="F24" s="12">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="G24" s="13">
+        <f>AVERAGE(表格5[[#This Row],[GPT4o_mini_0]:[GPT4o_mini_4]])</f>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
